--- a/acs/key_rows_with_tracts.xlsx
+++ b/acs/key_rows_with_tracts.xlsx
@@ -4522,12 +4522,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[405000, 403300, 405401, 403900, 406100, 405700, 406000, 403400, 404900, 426200, 426100, 405500, 403600, 405600, 405302, 403800, 403000, 406300, 405200, 427300, 405100, 405402, 405901, 427200, 406201, 405800, 403702, 405902, 405301, 983200]</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.44892901688369646, 0.4860443219627527, 1.0, 0.9614218534734278, 0.006246681943513278, 0.42716732859389106, 0.7301875375370571, 0.07386450709824258, 0.0003558713564433113, 0.00037986518468984925, 0.000816199710589858, 1.0, 0.12292428028382218, 0.9887989302384722, 0.7217635439807267, 0.9917195162230201, 0.965110899130757, 0.004842168321197998, 0.7881097170131135, 0.06995574665824546, 0.9914983863211025, 0.9999999999999999, 0.9932307963502839, 0.12839039219229662, 0.0024505301492987706, 0.9925872439747344, 0.05255546479841337, 1.0, 0.33262755923613835, 1.0584676909892966e-05]</t>
         </is>
       </c>
     </row>
@@ -4575,12 +4575,12 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[406601, 406602, 404501, 407000, 404200, 404700, 404900, 426100, 406500, 404800, 404400, 404600, 407900, 407800, 352202, 407600, 407700, 408100, 353001, 407400, 430102, 404502, 406800, 407500, 406900, 407102, 408000, 407101, 406700, 406400]</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.7645935973321921, 0.6051995434386682, 0.9788964128519579, 0.9998619152754435, 0.0004070274593684326, 0.9970452673752833, 0.10464123487881022, 0.01156552989184899, 0.12484092157187544, 0.9997176928528252, 0.22396852451477223, 0.99891819645774, 0.8652205961895646, 0.15661427450695206, 0.0029940024042560283, 0.7949380516082937, 0.2170941280860057, 0.004933188299563975, 0.0011003421866174008, 0.15860436607921663, 0.0006646815243906276, 0.9518975244578656, 0.9999999999999999, 0.03984052360928679, 1.0000000000000002, 0.3743142943374305, 0.9863459607967624, 0.11024574671034577, 1.0000000000000004, 0.013941000447866912]</t>
         </is>
       </c>
     </row>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[408600, 408300, 409500, 409900, 407300, 409700, 407000, 408700, 408800, 408900, 408500, 407900, 407800, 407600, 407700, 408100, 409800, 407400, 430102, 408400, 409600, 407500, 408000, 408200]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1.0, 0.9940288312251222, 0.0020317003369639763, 0.0081767422394515, 0.49004362017135744, 0.20270497932548565, 0.00013808472456259066, 1.0, 0.6267215454644371, 0.0066874897365231094, 1.0, 0.13477940381050368, 0.8433857254929633, 0.01727177655208233, 0.7829058719140024, 0.9748511444408519, 0.026153772976961313, 0.43961375917380885, 0.0018219683818578955, 1.0000000000000002, 0.3717979962153727, 0.9601594763905816, 0.01321694128434464, 0.9999999999999999]</t>
         </is>
       </c>
     </row>
@@ -5052,12 +5052,12 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[401300, 404501, 400300, 400600, 401000, 401400, 403900, 423700, 404200, 400700, 422700, 404000, 424001, 426200, 404101, 426100, 403501, 422000, 403600, 404400, 400200, 404300, 425103, 424002, 400900, 404102, 353001, 354001, 423902, 404502, 401100, 425104, 423800, 422600, 400100, 400800, 401200, 400500, 423901, 400400]</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[8.108544361627887e-05, 0.013812172951728242, 1.0000000000000002, 1.0, 0.9997175244314838, 0.005203684315170878, 0.004312486902487608, 0.0042931082233909615, 0.992062648036296, 0.9980779162368354, 0.0009432222363002836, 0.948870355376314, 0.00015148367872345393, 0.008881876189025983, 0.9982870009037823, 0.0023039623444210864, 0.0028028762152057193, 6.528512258157975e-06, 0.00019656834224763496, 0.7704347310246301, 0.9986627440618165, 0.9964681151240459, 0.0071908945579712965, 0.035903831202976105, 0.9888273767207144, 0.9999999937752034, 0.005498848901854908, 0.01464034145770446, 0.008089361797761764, 0.04604019315987436, 0.8407680826044995, 0.030546016845849767, 0.0028738792749451276, 3.021589114891565e-05, 0.9846245072264328, 0.994449593364898, 0.9085580501752115, 0.9997453284368248, 0.015978863821291548, 0.9958405820623568]</t>
         </is>
       </c>
     </row>
@@ -5105,12 +5105,12 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[402900, 402400, 428700, 401500, 401600, 401300, 403300, 401000, 401400, 410500, 402800, 403100, 402600, 982000, 404000, 403502, 402200, 406000, 403400, 403501, 403600, 981900, 402500, 405302, 401800, 403000, 402700, 17902, 405200, 427300, 401700, 401100, 425104, 403701, 403702, 401200, 405301, 983200]</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[1.0, 1.0, 0.04925135571359105, 0.9992497039443016, 0.9999999999999998, 0.9999189145562911, 0.5139556780373109, 0.00020075771346711783, 0.994796315684734, 0.9999999999999998, 1.0, 1.0, 0.9999999999999998, 1.0, 0.01180872740393969, 1.0, 0.9999999999999998, 0.004452239746500897, 0.9261354929017194, 0.9971971237849557, 0.8768791513738948, 0.9999999999999996, 1.0, 0.2782364560191839, 1.0, 0.03488910086935647, 1.0000000000000002, 0.27417102515272274, 0.21189028298671833, 0.033284627494764935, 0.9997419374624053, 0.15923191739547352, 8.784094243099689e-05, 0.9999999999999996, 0.9474445352016585, 0.09144194982491595, 0.6673724407643923, 0.9999894153231295]</t>
         </is>
       </c>
     </row>
@@ -5158,12 +5158,12 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[406601, 405000, 406602, 407300, 406100, 405700, 404700, 427100, 407200, 406000, 404900, 426100, 406500, 405600, 404800, 428301, 406300, 407600, 406202, 405100, 407400, 405901, 409000, 427200, 407102, 406201, 407101, 405800, 406400]</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.23540640266772153, 0.5497024752693102, 0.3948004565615807, 0.4842929423487521, 0.9937533180564817, 0.5728326714061863, 0.0001429729449257285, 0.04609872592682563, 0.9999999999999997, 0.26536022271642684, 0.8949595823096742, 0.00031078166367081003, 0.8751590784281726, 0.01120106976153418, 0.00028230714706211854, 2.5736251112413705e-05, 0.9951578316789268, 0.18779017183963181, 0.9999999999999998, 0.0018644331036478078, 0.4017818747471255, 0.006769203649743787, 0.0018531227793883952, 0.0487733469864914, 0.6256857056625664, 0.9975494698507898, 0.8897542532895898, 0.007412756025164851, 0.9860589995519746]</t>
         </is>
       </c>
     </row>
@@ -5211,12 +5211,12 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[410400, 408300, 409500, 409900, 407300, 409700, 408800, 410200, 432400, 409100, 410000, 410300, 408900, 409200, 410100, 432502, 428301, 408100, 409800, 432100, 430102, 409300, 409000, 409600, 432300, 432200, 409400, 432800]</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.9996644218110333, 0.0059711687749702674, 0.9979682996631221, 0.9918071992521879, 0.025663437479815934, 0.7972950206744407, 0.3732784545355358, 0.9998173882034194, 0.019151235726654867, 1.0, 0.9184047907226011, 1.0000000000000002, 0.993312510263488, 0.9806545207207364, 0.9999196764677503, 0.00705355752482992, 0.021227082233637888, 0.0012241060153903231, 0.9738462270230294, 0.0610951738914894, 0.0012068399726919978, 0.9956131822847882, 0.9702879937328869, 0.6282020037845263, 0.0013771031367038687, 0.000671669394001139, 1.0, 0.0014030294100334838]</t>
         </is>
       </c>
     </row>
